--- a/20170501-mnpollv3-foreign-policy/builds/development/data/_raw/Trump Russia.xlsx
+++ b/20170501-mnpollv3-foreign-policy/builds/development/data/_raw/Trump Russia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="41300" yWindow="1560" windowWidth="24480" windowHeight="16300"/>
+    <workbookView xWindow="44180" yWindow="3320" windowWidth="24480" windowHeight="16300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,8 +201,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -249,12 +255,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -279,9 +279,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,8 +290,17 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -307,6 +313,9 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -319,6 +328,9 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -620,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34:G52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -648,7 +660,7 @@
       <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -668,16 +680,16 @@
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="25">
         <v>42</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="26">
         <v>39</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="27">
         <v>19</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="24">
         <f>B9/100</f>
         <v>0.42</v>
       </c>
@@ -694,16 +706,16 @@
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>59</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="17">
         <v>20</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>21</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="24">
         <f t="shared" ref="E10:E27" si="0">B10/100</f>
         <v>0.59</v>
       </c>
@@ -720,16 +732,16 @@
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>37</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <v>49</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>14</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="24">
         <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
@@ -746,16 +758,16 @@
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>37</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="17">
         <v>41</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>22</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="24">
         <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
@@ -772,16 +784,16 @@
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>27</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="20">
         <v>53</v>
       </c>
       <c r="D13" s="9">
         <v>20</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="24">
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
@@ -798,16 +810,16 @@
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="12">
         <v>37</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>42</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <v>21</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="24">
         <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
@@ -824,16 +836,16 @@
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>47</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="16">
         <v>36</v>
       </c>
       <c r="D15" s="9">
         <v>17</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="24">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
@@ -850,16 +862,16 @@
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>47</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>33</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <v>20</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="24">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
@@ -876,16 +888,16 @@
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>42</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>38</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <v>20</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="24">
         <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
@@ -902,16 +914,16 @@
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <v>41</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <v>40</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <v>19</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="24">
         <f t="shared" si="0"/>
         <v>0.41</v>
       </c>
@@ -928,16 +940,16 @@
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>38</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="16">
         <v>45</v>
       </c>
       <c r="D19" s="9">
         <v>17</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="24">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
@@ -954,16 +966,16 @@
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="18">
         <v>34</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="19">
         <v>45</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <v>21</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="24">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
@@ -980,16 +992,16 @@
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="15">
         <v>47</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="16">
         <v>35</v>
       </c>
       <c r="D21" s="9">
         <v>18</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="24">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
@@ -1006,16 +1018,16 @@
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="12">
         <v>81</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="17">
         <v>6</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="14">
         <v>13</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="24">
         <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
@@ -1032,16 +1044,16 @@
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="12">
         <v>5</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="17">
         <v>77</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="14">
         <v>18</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="24">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
@@ -1058,16 +1070,16 @@
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="15">
         <v>36</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="20">
         <v>37</v>
       </c>
       <c r="D24" s="9">
         <v>27</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="24">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
@@ -1084,16 +1096,16 @@
       <c r="A25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="23">
         <v>2</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="17">
         <v>80</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="22">
         <v>18</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="24">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
@@ -1110,16 +1122,16 @@
       <c r="A26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="23">
         <v>77</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="17">
         <v>7</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="22">
         <v>16</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="24">
         <f t="shared" si="0"/>
         <v>0.77</v>
       </c>
@@ -1136,16 +1148,16 @@
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="23">
         <v>44</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="17">
         <v>32</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="22">
         <v>24</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="24">
         <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
@@ -1160,17 +1172,17 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="5"/>
-      <c r="E28" s="27"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="E29" s="27"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="E30" s="27"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
@@ -1178,12 +1190,12 @@
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="27"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="E32" s="27"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
@@ -1198,31 +1210,31 @@
       <c r="D33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="27"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:7" s="10" customFormat="1" ht="16" thickBot="1">
       <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="25">
         <v>55</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="26">
         <v>39</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="27">
         <v>6</v>
       </c>
-      <c r="E34" s="27">
-        <f t="shared" ref="E28:E52" si="3">B34/100</f>
+      <c r="E34" s="24">
+        <f t="shared" ref="E34:E52" si="3">B34/100</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="F34" s="10">
-        <f t="shared" ref="F28:F52" si="4">C34/100</f>
+        <f t="shared" ref="F34:F52" si="4">C34/100</f>
         <v>0.39</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" ref="G28:G52" si="5">D34/100</f>
+        <f t="shared" ref="G34:G52" si="5">D34/100</f>
         <v>0.06</v>
       </c>
     </row>
@@ -1230,16 +1242,16 @@
       <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="12">
         <v>72</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="17">
         <v>26</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="14">
         <v>2</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="24">
         <f t="shared" si="3"/>
         <v>0.72</v>
       </c>
@@ -1256,16 +1268,16 @@
       <c r="A36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="12">
         <v>51</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="17">
         <v>43</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="14">
         <v>6</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="24">
         <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
@@ -1282,16 +1294,16 @@
       <c r="A37" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="12">
         <v>50</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="17">
         <v>44</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="14">
         <v>6</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="24">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
@@ -1308,16 +1320,16 @@
       <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="15">
         <v>37</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="20">
         <v>50</v>
       </c>
       <c r="D38" s="9">
         <v>13</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="24">
         <f t="shared" si="3"/>
         <v>0.37</v>
       </c>
@@ -1334,16 +1346,16 @@
       <c r="A39" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="12">
         <v>52</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="13">
         <v>41</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="14">
         <v>7</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="24">
         <f t="shared" si="3"/>
         <v>0.52</v>
       </c>
@@ -1360,16 +1372,16 @@
       <c r="A40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="15">
         <v>58</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="16">
         <v>37</v>
       </c>
       <c r="D40" s="9">
         <v>5</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="24">
         <f t="shared" si="3"/>
         <v>0.57999999999999996</v>
       </c>
@@ -1386,16 +1398,16 @@
       <c r="A41" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="12">
         <v>64</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="17">
         <v>31</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="14">
         <v>5</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="24">
         <f t="shared" si="3"/>
         <v>0.64</v>
       </c>
@@ -1412,16 +1424,16 @@
       <c r="A42" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="12">
         <v>54</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="17">
         <v>37</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="14">
         <v>9</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="24">
         <f t="shared" si="3"/>
         <v>0.54</v>
       </c>
@@ -1438,16 +1450,16 @@
       <c r="A43" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="12">
         <v>51</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="17">
         <v>44</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="14">
         <v>5</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="24">
         <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
@@ -1464,16 +1476,16 @@
       <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="15">
         <v>53</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="16">
         <v>43</v>
       </c>
       <c r="D44" s="9">
         <v>4</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="24">
         <f t="shared" si="3"/>
         <v>0.53</v>
       </c>
@@ -1490,16 +1502,16 @@
       <c r="A45" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="18">
         <v>52</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="19">
         <v>45</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="14">
         <v>3</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="24">
         <f t="shared" si="3"/>
         <v>0.52</v>
       </c>
@@ -1516,16 +1528,16 @@
       <c r="A46" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="15">
         <v>57</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="16">
         <v>35</v>
       </c>
       <c r="D46" s="9">
         <v>8</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="24">
         <f t="shared" si="3"/>
         <v>0.56999999999999995</v>
       </c>
@@ -1542,16 +1554,16 @@
       <c r="A47" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="12">
         <v>94</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="17">
         <v>4</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="14">
         <v>2</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="24">
         <f t="shared" si="3"/>
         <v>0.94</v>
       </c>
@@ -1568,16 +1580,16 @@
       <c r="A48" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="12">
         <v>14</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="17">
         <v>79</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="14">
         <v>7</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="24">
         <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
@@ -1594,16 +1606,16 @@
       <c r="A49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="15">
         <v>54</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="20">
         <v>37</v>
       </c>
       <c r="D49" s="9">
         <v>9</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="24">
         <f t="shared" si="3"/>
         <v>0.54</v>
       </c>
@@ -1620,16 +1632,16 @@
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="23">
         <v>9</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="17">
         <v>82</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="22">
         <v>9</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="24">
         <f t="shared" si="3"/>
         <v>0.09</v>
       </c>
@@ -1646,16 +1658,16 @@
       <c r="A51" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="23">
         <v>91</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="17">
         <v>6</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="22">
         <v>3</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="24">
         <f t="shared" si="3"/>
         <v>0.91</v>
       </c>
@@ -1672,16 +1684,16 @@
       <c r="A52" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="23">
         <v>63</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="17">
         <v>31</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="22">
         <v>6</v>
       </c>
-      <c r="E52" s="27">
+      <c r="E52" s="24">
         <f t="shared" si="3"/>
         <v>0.63</v>
       </c>
